--- a/biology/Zoologie/Hocco_tuberculé/Hocco_tuberculé.xlsx
+++ b/biology/Zoologie/Hocco_tuberculé/Hocco_tuberculé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hocco_tubercul%C3%A9</t>
+          <t>Hocco_tuberculé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mitu tuberosum
 L’Hocco tuberculé (Mitu tuberosum) est une espèce d'oiseau de la famille des Cracidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hocco_tubercul%C3%A9</t>
+          <t>Hocco_tuberculé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure environ 83 cm de longueur. Son plumage est d'un noir bleuté brillant avec le ventre et le bout de la queue blancs. Le bec court, crochu, tuberculé, aplati transversalement est rouge ou orange. Les pattes sont orange.
 Le hocco est dit "tuberculé" à cause de la bosse (ou tubercule) qui rend son bec si particulier.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hocco_tubercul%C3%A9</t>
+          <t>Hocco_tuberculé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve en Bolivie, Brésil, Colombie, Équateur et Pérou.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hocco_tubercul%C3%A9</t>
+          <t>Hocco_tuberculé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les forêts de plaines humides tropicales et subtropicales.
 </t>
